--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF62D3B-FF83-5648-B4FB-AFBDB2622497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87B964-5787-714C-90D2-BD99D6531674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4800" yWindow="-23540" windowWidth="38400" windowHeight="23540" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
+    <workbookView xWindow="2900" yWindow="460" windowWidth="38400" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
   <sheets>
     <sheet name="individual" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>{'True': 'Yes', 'False': 'No'}</t>
   </si>
   <si>
-    <t>{breaks=[30,50,65],labels=["18-30", "31-50", "51-65", "66 and above"]}</t>
-  </si>
-  <si>
     <t>{quartiles=[0, 0.25, 0.5, 0.75,1]}</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>discretize</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,30,50,65,Inf],"labels":["18-30", "31-50", "51-65", "66 and above"]}</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87B964-5787-714C-90D2-BD99D6531674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8276407-4EDC-3643-A8F6-7BE83BE93196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="460" windowWidth="38400" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>{'True': 'Yes', 'False': 'No'}</t>
   </si>
   <si>
-    <t>{quartiles=[0, 0.25, 0.5, 0.75,1]}</t>
-  </si>
-  <si>
     <t>Acquires COVID-19 related information and advice from traditional mass media outlets</t>
   </si>
   <si>
@@ -267,7 +264,10 @@
     <t>discretize</t>
   </si>
   <si>
-    <t>{"breaks":[0,30,50,65,Inf],"labels":["18-30", "31-50", "51-65", "66 and above"]}</t>
+    <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"]}</t>
+  </si>
+  <si>
+    <t>{"quartiles":[0, 0.25, 0.5, 0.75,1]}</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8276407-4EDC-3643-A8F6-7BE83BE93196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA6F1F-1915-C541-81CE-070CCB83D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="460" windowWidth="38400" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
   <sheets>
     <sheet name="individual" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>gender</t>
   </si>
@@ -57,9 +57,6 @@
     <t>ordinal</t>
   </si>
   <si>
-    <t>['poor', 'mediocre', 'good', 'very good', 'excellent']</t>
-  </si>
-  <si>
     <t>income</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>mediacategory_other</t>
   </si>
   <si>
-    <t>['True', 'False']</t>
-  </si>
-  <si>
     <t>major_depressive_episode</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
     <t>responsedate</t>
   </si>
   <si>
-    <t>{'FEMALE': 'Female', 'MALE': 'Male'}</t>
-  </si>
-  <si>
-    <t>{1.0: '&lt;€500', 2.0:'€501-€1000', 3.0:'€1001-€1500', 4.0:'€1501-€2000', 5.0:'€2001-€2500', 6.0:'€2501-€3000', 7.0:'€3001-€3500', 8.0:'€3501-€4000', 9.0:'€4001-€4500', 10.0:'€4501-€5000', 11.0:€5001-€7500', 12.0:'&gt;€7500', 13.0:'I prefer not to say'}</t>
-  </si>
-  <si>
     <t>{1.0:1, 2.0:7, 3.0:10, 4.0:10, 5.0:15, 6.0:13, 7.0:22, 8.0:22, 9.0:np.nan}</t>
   </si>
   <si>
@@ -237,12 +225,6 @@
     <t>["18-30", "31-50", "51-65", "66 and above"]</t>
   </si>
   <si>
-    <t>{'livingWithAdults': 'couple without children and remaining uncategorized households', 'livingAlone': 'single person household', 'livingWithChildren': 'household with children under 18'}</t>
-  </si>
-  <si>
-    <t>{'True': 'Yes', 'False': 'No'}</t>
-  </si>
-  <si>
     <t>Acquires COVID-19 related information and advice from traditional mass media outlets</t>
   </si>
   <si>
@@ -258,9 +240,6 @@
     <t>Acquires COVID-19 related information and advice from uncategorized sources</t>
   </si>
   <si>
-    <t>{'top': '10% highest beta', 'bottom': '10% lowest beta', 'around_zero', '10% lowest absolute beta'}</t>
-  </si>
-  <si>
     <t>discretize</t>
   </si>
   <si>
@@ -268,6 +247,30 @@
   </si>
   <si>
     <t>{"quartiles":[0, 0.25, 0.5, 0.75,1]}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"livingWithAdults": "couple without children and remaining uncategorized households", "livingAlone": "single person household", "livingWithChildren": "household with children under 18"}</t>
+  </si>
+  <si>
+    <t>["poor", "mediocre", "good", "very good", "excellent"]</t>
+  </si>
+  <si>
+    <t>{1.0: "&lt;€500", 2.0:"€501-€1000", 3.0:"€1001-€1500", 4.0:"€1501-€2000", 5.0:"€2001-€2500", 6.0:"€2501-€3000", 7.0:"€3001-€3500", 8.0:"€3501-€4000", 9.0:"€4001-€4500", 10.0:"€4501-€5000", 11.0:€5001-€7500", 12.0:"&gt;€7500", 13.0:"I prefer not to say"}</t>
+  </si>
+  <si>
+    <t>{"True": "Yes", "False": "No"}</t>
+  </si>
+  <si>
+    <t>{"top": "10% highest beta", "bottom": "10% lowest beta", "around_zero", "10% lowest absolute beta"}</t>
+  </si>
+  <si>
+    <t>["True", "False"]</t>
+  </si>
+  <si>
+    <t>{"FEMALE": "Female", "MALE": "Male"}</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,19 +693,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -710,13 +713,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,16 +730,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,13 +747,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,262 +764,305 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1034,91 +1086,91 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA6F1F-1915-C541-81CE-070CCB83D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A3845-F127-1E4A-B274-A62F4D80CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>categories</t>
   </si>
   <si>
-    <t>quartile</t>
-  </si>
-  <si>
     <t>num_participants</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>responsedate</t>
   </si>
   <si>
-    <t>{1.0:1, 2.0:7, 3.0:10, 4.0:10, 5.0:15, 6.0:13, 7.0:22, 8.0:22, 9.0:np.nan}</t>
-  </si>
-  <si>
     <t>new_deaths</t>
   </si>
   <si>
@@ -246,31 +240,37 @@
     <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"]}</t>
   </si>
   <si>
-    <t>{"quartiles":[0, 0.25, 0.5, 0.75,1]}</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>{"livingWithAdults": "couple without children and remaining uncategorized households", "livingAlone": "single person household", "livingWithChildren": "household with children under 18"}</t>
-  </si>
-  <si>
     <t>["poor", "mediocre", "good", "very good", "excellent"]</t>
   </si>
   <si>
-    <t>{1.0: "&lt;€500", 2.0:"€501-€1000", 3.0:"€1001-€1500", 4.0:"€1501-€2000", 5.0:"€2001-€2500", 6.0:"€2501-€3000", 7.0:"€3001-€3500", 8.0:"€3501-€4000", 9.0:"€4001-€4500", 10.0:"€4501-€5000", 11.0:€5001-€7500", 12.0:"&gt;€7500", 13.0:"I prefer not to say"}</t>
-  </si>
-  <si>
-    <t>{"True": "Yes", "False": "No"}</t>
-  </si>
-  <si>
-    <t>{"top": "10% highest beta", "bottom": "10% lowest beta", "around_zero", "10% lowest absolute beta"}</t>
-  </si>
-  <si>
     <t>["True", "False"]</t>
   </si>
   <si>
-    <t>{"FEMALE": "Female", "MALE": "Male"}</t>
+    <t>{"Female": "FEMALE", "Male":"MALE"}</t>
+  </si>
+  <si>
+    <t>{"couple without children and remaining uncategorized households":"livingWithAdults", "single person household":"livingAlone", "household with children under 18":"livingWithChildren"}</t>
+  </si>
+  <si>
+    <t>{"&lt;€500":1.0, "€501-€1000":2.0, "€1001-€1500":3.0, "€1501-€2000":4.0, "€2001-€2500":5.0, "€2501-€3000":6.0, "€3001-€3500":7.0, "€3501-€4000":8.0, "€4001-€4500":9.0, "€4501-€5000":10.0, "€5001-€7500":11.0, "&gt;€7500":12.0, "I prefer not to say":13.0}</t>
+  </si>
+  <si>
+    <t>{"Yes":"True", "No":"False"}</t>
+  </si>
+  <si>
+    <t>{"10% highest beta": "top", "10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero"}</t>
+  </si>
+  <si>
+    <t>{"1": 1.0, "7": 2.0, "10":3.0, "10":4.0, "15":5.0, "13":6.0, "22":7.0, "22":8.0, "NA":9.0}</t>
+  </si>
+  <si>
+    <t>{"quantiles":[0, 0.25, 0.5, 0.75,1]}</t>
+  </si>
+  <si>
+    <t>labels</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
     <tableColumn id="2" xr3:uid="{93A02916-618A-6E42-986F-F7CB6283B933}" name="name"/>
     <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type"/>
     <tableColumn id="4" xr3:uid="{9DAF41B8-45D6-7444-A81A-23AFAE45BD05}" name="discretize"/>
-    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="categories"/>
+    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,7 +679,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,10 +702,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -730,16 +730,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,13 +747,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
@@ -764,16 +764,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -781,16 +781,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,16 +798,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,16 +815,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,16 +832,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -849,16 +849,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,16 +866,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -883,16 +883,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,16 +900,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,16 +934,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,67 +968,67 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,16 +1036,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,16 +1053,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1103,74 +1103,74 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A3845-F127-1E4A-B274-A62F4D80CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A490485-EE07-4A41-BAD5-C19CD49B6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>gender</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Major depressive episode</t>
   </si>
   <si>
-    <t>Generalized anxiety disorde</t>
-  </si>
-  <si>
     <t>Number participants (&gt;=15 questionnairs)</t>
   </si>
   <si>
@@ -210,30 +207,12 @@
     <t>beta_type</t>
   </si>
   <si>
-    <t>resilience_mean</t>
-  </si>
-  <si>
     <t>resilience_median</t>
   </si>
   <si>
     <t>["18-30", "31-50", "51-65", "66 and above"]</t>
   </si>
   <si>
-    <t>Acquires COVID-19 related information and advice from traditional mass media outlets</t>
-  </si>
-  <si>
-    <t>Acquires COVID-19 related information and advice from health authorities</t>
-  </si>
-  <si>
-    <t>Acquires COVID-19 related information and advice from social media</t>
-  </si>
-  <si>
-    <t>Acquires COVID-19 related information and advice from family and friends</t>
-  </si>
-  <si>
-    <t>Acquires COVID-19 related information and advice from uncategorized sources</t>
-  </si>
-  <si>
     <t>discretize</t>
   </si>
   <si>
@@ -246,21 +225,12 @@
     <t>["poor", "mediocre", "good", "very good", "excellent"]</t>
   </si>
   <si>
-    <t>["True", "False"]</t>
-  </si>
-  <si>
     <t>{"Female": "FEMALE", "Male":"MALE"}</t>
   </si>
   <si>
     <t>{"couple without children and remaining uncategorized households":"livingWithAdults", "single person household":"livingAlone", "household with children under 18":"livingWithChildren"}</t>
   </si>
   <si>
-    <t>{"&lt;€500":1.0, "€501-€1000":2.0, "€1001-€1500":3.0, "€1501-€2000":4.0, "€2001-€2500":5.0, "€2501-€3000":6.0, "€3001-€3500":7.0, "€3501-€4000":8.0, "€4001-€4500":9.0, "€4501-€5000":10.0, "€5001-€7500":11.0, "&gt;€7500":12.0, "I prefer not to say":13.0}</t>
-  </si>
-  <si>
-    <t>{"Yes":"True", "No":"False"}</t>
-  </si>
-  <si>
     <t>{"10% highest beta": "top", "10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero"}</t>
   </si>
   <si>
@@ -271,6 +241,36 @@
   </si>
   <si>
     <t>labels</t>
+  </si>
+  <si>
+    <t>{"yes":true, "no":false}</t>
+  </si>
+  <si>
+    <t>Generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500", "I prefer not to say"}</t>
+  </si>
+  <si>
+    <t>["I prefer not to say"]</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from traditional mass media outlets</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from health authorities</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from social media</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from family and friends</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from uncategorized sources</t>
   </si>
 </sst>
 </file>
@@ -366,13 +366,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E22" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F21" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2C2C81CE-41D7-B642-86EE-8BF3E87C5D9B}" name="column_name"/>
     <tableColumn id="2" xr3:uid="{93A02916-618A-6E42-986F-F7CB6283B933}" name="name"/>
     <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type"/>
     <tableColumn id="4" xr3:uid="{9DAF41B8-45D6-7444-A81A-23AFAE45BD05}" name="discretize"/>
+    <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="na"/>
     <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -676,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F421CD7-C3FC-4DF3-97FF-A3C0B3079450}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -687,11 +688,11 @@
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -702,13 +703,16 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -719,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -736,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -753,13 +757,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -770,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -787,98 +791,101 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -906,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -923,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -940,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -957,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -974,15 +981,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -991,15 +998,15 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -1008,61 +1015,44 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1106,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1114,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A490485-EE07-4A41-BAD5-C19CD49B6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F0C67-6882-2F4D-813D-62CE1D74F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>Generalized anxiety disorder</t>
   </si>
   <si>
-    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500", "I prefer not to say"}</t>
-  </si>
-  <si>
     <t>["I prefer not to say"]</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Gets COVID-19 related information and advice from uncategorized sources</t>
+  </si>
+  <si>
+    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500", "I prefer not to say"]</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>68</v>
@@ -794,10 +794,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F0C67-6882-2F4D-813D-62CE1D74F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211310E4-E13F-DA41-A39A-EC87D027DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>categorical</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>household_status</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500", "I prefer not to say"]</t>
+  </si>
+  <si>
+    <t>mean_age</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,22 +694,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -717,342 +717,342 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1076,91 +1076,91 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211310E4-E13F-DA41-A39A-EC87D027DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A689B8-E4DF-124E-958E-917FD17FA089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>gender</t>
   </si>
@@ -213,9 +213,6 @@
     <t>discretize</t>
   </si>
   <si>
-    <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"]}</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>{"10% highest beta": "top", "10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero"}</t>
   </si>
   <si>
-    <t>{"1": 1.0, "7": 2.0, "10":3.0, "10":4.0, "15":5.0, "13":6.0, "22":7.0, "22":8.0, "NA":9.0}</t>
-  </si>
-  <si>
     <t>{"quantiles":[0, 0.25, 0.5, 0.75,1]}</t>
   </si>
   <si>
@@ -271,6 +265,24 @@
   </si>
   <si>
     <t>mean_age</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>type_plot</t>
+  </si>
+  <si>
+    <t>type_assoc</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"], "ordered"=true}</t>
+  </si>
+  <si>
+    <t>{"1": 1.0, "7": 2.0, "10":3.0, "10":4.0, "15":5.0, "13":6.0, "22":7.0, "22":8.0}</t>
+  </si>
+  <si>
+    <t>[9.0]</t>
   </si>
 </sst>
 </file>
@@ -366,14 +378,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F21" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G21" xr:uid="{E67AAA4C-54DC-C746-BEFF-D48E11E2872C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2C2C81CE-41D7-B642-86EE-8BF3E87C5D9B}" name="column_name"/>
     <tableColumn id="2" xr3:uid="{93A02916-618A-6E42-986F-F7CB6283B933}" name="name"/>
-    <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type"/>
+    <tableColumn id="8" xr3:uid="{11318295-8FCE-EB44-AE8E-94523583B01C}" name="type_assoc"/>
+    <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="na"/>
+    <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type_plot"/>
     <tableColumn id="4" xr3:uid="{9DAF41B8-45D6-7444-A81A-23AFAE45BD05}" name="discretize"/>
-    <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="na"/>
     <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -677,22 +690,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F421CD7-C3FC-4DF3-97FF-A3C0B3079450}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -700,19 +715,22 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -722,31 +740,37 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -756,14 +780,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
+      <c r="E4" t="s">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -773,14 +800,17 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -791,118 +821,142 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
+      <c r="E7" t="s">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
+      <c r="E8" t="s">
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>60</v>
+      <c r="E9" t="s">
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
+      <c r="E10" t="s">
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
+      <c r="E11" t="s">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -910,16 +964,19 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -927,16 +984,19 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -944,16 +1004,19 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -961,16 +1024,19 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -978,16 +1044,19 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -997,14 +1066,17 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1014,14 +1086,17 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
+      <c r="E19" t="s">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1031,28 +1106,34 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
+      <c r="E20" t="s">
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
+      <c r="E21" t="s">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A689B8-E4DF-124E-958E-917FD17FA089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C2E5B-5319-804A-ADAB-B1715E3E9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>gender</t>
   </si>
@@ -207,9 +207,6 @@
     <t>resilience_median</t>
   </si>
   <si>
-    <t>["18-30", "31-50", "51-65", "66 and above"]</t>
-  </si>
-  <si>
     <t>discretize</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>["I prefer not to say"]</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Gets COVID-19 related information and advice from traditional mass media outlets</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Gets COVID-19 related information and advice from uncategorized sources</t>
   </si>
   <si>
-    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500", "I prefer not to say"]</t>
-  </si>
-  <si>
     <t>mean_age</t>
   </si>
   <si>
@@ -276,13 +267,19 @@
     <t>type_assoc</t>
   </si>
   <si>
-    <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"], "ordered"=true}</t>
-  </si>
-  <si>
     <t>{"1": 1.0, "7": 2.0, "10":3.0, "10":4.0, "15":5.0, "13":6.0, "22":7.0, "22":8.0}</t>
   </si>
   <si>
     <t>[9.0]</t>
+  </si>
+  <si>
+    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500"]</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"], "ordered":true}</t>
   </si>
 </sst>
 </file>
@@ -384,10 +381,10 @@
     <tableColumn id="1" xr3:uid="{2C2C81CE-41D7-B642-86EE-8BF3E87C5D9B}" name="column_name"/>
     <tableColumn id="2" xr3:uid="{93A02916-618A-6E42-986F-F7CB6283B933}" name="name"/>
     <tableColumn id="8" xr3:uid="{11318295-8FCE-EB44-AE8E-94523583B01C}" name="type_assoc"/>
-    <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="na"/>
+    <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="filter"/>
+    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
     <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type_plot"/>
     <tableColumn id="4" xr3:uid="{9DAF41B8-45D6-7444-A81A-23AFAE45BD05}" name="discretize"/>
-    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,7 +690,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,9 +699,10 @@
     <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -715,19 +713,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -741,33 +739,33 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -781,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -821,16 +819,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,19 +836,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,19 +856,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,19 +876,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -898,19 +896,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -918,19 +916,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -941,19 +939,19 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -964,16 +962,16 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,16 +982,16 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1004,16 +1002,16 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1024,16 +1022,16 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,16 +1042,16 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1066,14 +1064,14 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1107,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1121,19 +1119,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310C2E5B-5319-804A-ADAB-B1715E3E9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5FA6B-603B-C046-8525-5EE5EC17972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>gender</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>discretize</t>
-  </si>
-  <si>
-    <t>{}</t>
   </si>
   <si>
     <t>["poor", "mediocre", "good", "very good", "excellent"]</t>
@@ -690,7 +687,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,16 +710,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
@@ -739,33 +736,27 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -779,13 +770,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -799,13 +787,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -819,16 +804,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -836,19 +818,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -856,19 +835,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -876,19 +852,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -896,19 +869,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,19 +886,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,19 +906,16 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,16 +926,13 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,16 +943,13 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,16 +960,13 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,16 +977,13 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,16 +994,13 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,13 +1014,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1084,14 +1030,8 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
       <c r="F19" t="s">
         <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,13 +1045,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1119,19 +1056,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5FA6B-603B-C046-8525-5EE5EC17972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C450138F-5CA1-644C-99FD-99636B1DB91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
   <si>
     <t>gender</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>{"breaks":[0,30,50,65,"Inf"],"labels":["18-30", "31-50", "51-65", "66 and above"], "ordered":true}</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,11 +738,17 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -752,6 +761,12 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -769,11 +784,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
       <c r="E4" t="s">
         <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,11 +807,17 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
       <c r="E5" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -812,6 +839,9 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -823,11 +853,17 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
       <c r="E7" t="s">
         <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -840,11 +876,17 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" t="s">
         <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -857,11 +899,17 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" t="s">
         <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,11 +922,17 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" t="s">
         <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,11 +945,17 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
       <c r="E11" t="s">
         <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,6 +977,9 @@
       <c r="F12" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -928,6 +991,12 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
@@ -945,6 +1014,12 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
@@ -962,6 +1037,12 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
@@ -979,6 +1060,12 @@
       <c r="C16" t="s">
         <v>73</v>
       </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
@@ -996,6 +1083,12 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
@@ -1013,11 +1106,17 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1030,8 +1129,17 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" t="s">
         <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,11 +1152,17 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" t="s">
         <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,11 +1175,17 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
       <c r="E21" t="s">
         <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C450138F-5CA1-644C-99FD-99636B1DB91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE17FA1-553F-1142-84A4-B0DC1761734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>Generalized anxiety disorder</t>
   </si>
   <si>
-    <t>["I prefer not to say"]</t>
-  </si>
-  <si>
     <t>Gets COVID-19 related information and advice from traditional mass media outlets</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>["i prefer not to say"]</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,16 +713,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -748,30 +748,30 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>58</v>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -831,16 +831,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -848,13 +848,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -871,13 +871,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>64</v>
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -894,13 +894,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>64</v>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,13 +917,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -940,13 +940,13 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,19 +966,19 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,13 +989,13 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -1012,13 +1012,13 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -1035,13 +1035,13 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1058,13 +1058,13 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1081,13 +1081,13 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>64</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE17FA1-553F-1142-84A4-B0DC1761734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E353052-ADB1-7D4E-AEEC-FD08ABD0CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>gender</t>
   </si>
@@ -165,9 +165,6 @@
     <t>General health</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>{"Female": "FEMALE", "Male":"MALE"}</t>
   </si>
   <si>
-    <t>{"couple without children and remaining uncategorized households":"livingWithAdults", "single person household":"livingAlone", "household with children under 18":"livingWithChildren"}</t>
-  </si>
-  <si>
     <t>{"10% highest beta": "top", "10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero"}</t>
   </si>
   <si>
@@ -280,6 +274,15 @@
   </si>
   <si>
     <t>["i prefer not to say"]</t>
+  </si>
+  <si>
+    <t>{"yes":1, "no":0}</t>
+  </si>
+  <si>
+    <t>Net monthly income</t>
+  </si>
+  <si>
+    <t>{"household without children under 18":"livingWithAdults", "single person household":"livingAlone", "household with children under 18":"livingWithChildren"}</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L9" sqref="K8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,19 +716,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -739,39 +742,39 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -785,16 +788,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -808,16 +811,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -825,22 +828,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -848,22 +851,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -871,22 +874,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -894,22 +897,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,22 +920,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -940,22 +943,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -963,22 +966,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -986,22 +989,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,22 +1012,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,22 +1035,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,22 +1058,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1078,68 +1081,68 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,22 +1150,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
       <c r="F20" t="s">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,22 +1173,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" t="s">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -1229,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,7 +1240,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E353052-ADB1-7D4E-AEEC-FD08ABD0CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62407EF-E311-2B4F-B92C-B1D2668DAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>gender</t>
   </si>
@@ -219,9 +219,6 @@
     <t>{"quantiles":[0, 0.25, 0.5, 0.75,1]}</t>
   </si>
   <si>
-    <t>labels</t>
-  </si>
-  <si>
     <t>{"yes":true, "no":false}</t>
   </si>
   <si>
@@ -283,13 +280,25 @@
   </si>
   <si>
     <t>{"household without children under 18":"livingWithAdults", "single person household":"livingAlone", "household with children under 18":"livingWithChildren"}</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,3,6,9,12],"labels":["&lt;€1500", "€1501-€3000", "€3001-€4500", "&gt;€4500"], "ordered":true}</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,1.5,2.5,3.5,4.5,5.5],"labels":["[1,2)"], "[2,3)", "[3,4)", "[4,5)", "[5]"], "ordered":true}</t>
+  </si>
+  <si>
+    <t>ordering</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +321,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,10 +355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +408,7 @@
     <tableColumn id="2" xr3:uid="{93A02916-618A-6E42-986F-F7CB6283B933}" name="name"/>
     <tableColumn id="8" xr3:uid="{11318295-8FCE-EB44-AE8E-94523583B01C}" name="type_assoc"/>
     <tableColumn id="6" xr3:uid="{74C92776-3FF6-584C-808D-56CFB4407634}" name="filter"/>
-    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="labels"/>
+    <tableColumn id="5" xr3:uid="{0CC22598-1230-B44E-B162-914FD20359E0}" name="ordering"/>
     <tableColumn id="3" xr3:uid="{C1091258-35BA-BA42-93CE-8A85B161F2A1}" name="type_plot"/>
     <tableColumn id="4" xr3:uid="{9DAF41B8-45D6-7444-A81A-23AFAE45BD05}" name="discretize"/>
   </tableColumns>
@@ -693,7 +716,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L9" sqref="K8:L9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,16 +739,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>56</v>
@@ -739,42 +762,42 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -788,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -820,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,22 +851,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,22 +874,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,22 +897,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,22 +920,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,22 +966,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -969,19 +992,19 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -992,13 +1015,13 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -1015,13 +1038,13 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -1038,13 +1061,13 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1061,13 +1084,13 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1084,13 +1107,13 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1110,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -1119,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,19 +1176,19 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,22 +1196,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62407EF-E311-2B4F-B92C-B1D2668DAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE343C-A432-834E-81AB-A9AA5F91C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -285,13 +285,13 @@
     <t>{"breaks":[0,3,6,9,12],"labels":["&lt;€1500", "€1501-€3000", "€3001-€4500", "&gt;€4500"], "ordered":true}</t>
   </si>
   <si>
-    <t>{"breaks":[0,1.5,2.5,3.5,4.5,5.5],"labels":["[1,2)"], "[2,3)", "[3,4)", "[4,5)", "[5]"], "ordered":true}</t>
-  </si>
-  <si>
     <t>ordering</t>
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t>{"breaks":[0,1.5,2.5,3.5,4.5,5.5],"labels":["[1,2)", "[2,3)", "[3,4)", "[4,5)", "[5]"], "ordered":true}</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
         <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>70</v>
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -771,7 +771,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -877,7 +877,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>77</v>
@@ -886,7 +886,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
@@ -900,7 +900,7 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -909,7 +909,7 @@
         <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -923,7 +923,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -946,7 +946,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -955,7 +955,7 @@
         <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
@@ -969,7 +969,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -978,7 +978,7 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -1165,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
@@ -1185,7 +1185,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -1199,7 +1199,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -1208,7 +1208,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>77</v>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE343C-A432-834E-81AB-A9AA5F91C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E6B90-83C0-8F4B-AC4F-FD924A3B7544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>{"Female": "FEMALE", "Male":"MALE"}</t>
   </si>
   <si>
-    <t>{"10% highest beta": "top", "10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero"}</t>
-  </si>
-  <si>
     <t>{"quantiles":[0, 0.25, 0.5, 0.75,1]}</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>{"breaks":[0,1.5,2.5,3.5,4.5,5.5],"labels":["[1,2)", "[2,3)", "[3,4)", "[4,5)", "[5]"], "ordered":true}</t>
+  </si>
+  <si>
+    <t>{"10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero", "10% highest beta": "top"}</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,16 +739,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>56</v>
@@ -762,42 +762,42 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,22 +851,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,22 +874,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,22 +897,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,22 +920,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,22 +966,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -992,19 +992,19 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,19 +1015,19 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1038,19 +1038,19 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,19 +1061,19 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1084,19 +1084,19 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1107,19 +1107,19 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,19 +1130,19 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,19 +1176,19 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,22 +1196,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E6B90-83C0-8F4B-AC4F-FD924A3B7544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BAD3728-29F3-0A42-A630-FDA7F8B10D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
   <sheets>
     <sheet name="individual" sheetId="1" r:id="rId1"/>
@@ -165,24 +165,6 @@
     <t>General health</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Neuroticism</t>
-  </si>
-  <si>
-    <t>Extraversion</t>
-  </si>
-  <si>
-    <t>Openness to experience</t>
-  </si>
-  <si>
-    <t>Agreeableness</t>
-  </si>
-  <si>
-    <t>Conscientiousness</t>
-  </si>
-  <si>
     <t>Beta</t>
   </si>
   <si>
@@ -292,6 +274,24 @@
   </si>
   <si>
     <t>{"10% lowest beta": "bottom", "10% lowest absolute beta": "around_zero", "10% highest beta": "top"}</t>
+  </si>
+  <si>
+    <t>Education (higher is more education)</t>
+  </si>
+  <si>
+    <t>Neuroticism (0 = agree, 21 = disagree)</t>
+  </si>
+  <si>
+    <t>Extraversion (0 = agree, 21 = disagree)</t>
+  </si>
+  <si>
+    <t>Openness to experience (0 = agree, 21 = disagree)</t>
+  </si>
+  <si>
+    <t>Agreeableness (0 = agree, 21 = disagree)</t>
+  </si>
+  <si>
+    <t>Conscientiousness (0 = agree, 20 = disagree)</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G21" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,19 +739,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,42 +762,42 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,16 +834,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,22 +851,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,22 +874,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,22 +897,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,22 +920,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,22 +966,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,22 +989,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,22 +1012,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,22 +1058,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,22 +1081,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,68 +1104,68 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,22 +1173,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,22 +1196,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -1255,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/processing_table.xlsx
+++ b/processing_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cawarmerdam/Documents/projects/lifelines_covid_research/umcg-rwarmerdam/analyses/qol_modelling_2022-12-12/covid19-qol-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BAD3728-29F3-0A42-A630-FDA7F8B10D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459DA44-EF0C-C84D-B6D7-A2CC89F6748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{6BA91784-52AA-44DA-B804-53D1A43486FD}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Generalized anxiety disorder</t>
   </si>
   <si>
-    <t>Gets COVID-19 related information and advice from traditional mass media outlets</t>
-  </si>
-  <si>
     <t>Gets COVID-19 related information and advice from health authorities</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>[9.0]</t>
   </si>
   <si>
-    <t>["&lt;€500", "€501-€1000", "€1001-€1500", "€1501-€2000", "€2001-€2500", "€2501-€3000", "€3001-€3500", "€3501-€4000", "€4001-€4500", "€4501-€5000", "€5001-€7500", "&gt;€7500"]</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>["i prefer not to say"]</t>
-  </si>
-  <si>
     <t>{"yes":1, "no":0}</t>
   </si>
   <si>
@@ -292,6 +283,15 @@
   </si>
   <si>
     <t>Conscientiousness (0 = agree, 20 = disagree)</t>
+  </si>
+  <si>
+    <t>Gets COVID-19 related information and advice from traditional media outlets</t>
+  </si>
+  <si>
+    <t>{"i prefer not to say":13}</t>
+  </si>
+  <si>
+    <t>{"&lt;€500":1, "€501-€1000":2, "€1001-€1500":3, "€1501-€2000":4, "€2001-€2500":5, "€2501-€3000":6, "€3001-€3500":7, "€3501-€4000":8, "€4001-€4500":9, "€4501-€5000":10, "€5001-€7500":11, "&gt;€7500":12}</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G21" sqref="A1:G21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,16 +739,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>50</v>
@@ -762,42 +762,42 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,22 +851,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,22 +874,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,22 +897,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,22 +920,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,22 +943,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,22 +966,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,22 +989,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,16 +1012,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -1035,16 +1035,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -1058,16 +1058,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1081,16 +1081,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1104,16 +1104,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1133,16 +1133,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1176,19 +1176,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,19 +1199,19 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
